--- a/Data/LSBS_Trawl_Information_Vessel_Constants.xlsx
+++ b/Data/LSBS_Trawl_Information_Vessel_Constants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\igsareebgslsbs1\Users\MVinson\MyDocuments\R\R_Projects\RVCAT_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5007AF7-6A09-4739-BAC2-16964D2E7324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E344117-C833-4519-BFD8-820B88D8EFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47904" yWindow="4092" windowWidth="15942" windowHeight="24792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63654" yWindow="3792" windowWidth="28992" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Constants!$A$1:$F$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="158">
   <si>
     <t>Constants used in determining densities using trawls</t>
   </si>
@@ -426,9 +436,6 @@
     <t>39 foot Yankee trawl</t>
   </si>
   <si>
-    <t>ShipName</t>
-  </si>
-  <si>
     <t>39 foot Yankee trawl with chain foot rope</t>
   </si>
   <si>
@@ -438,9 +445,6 @@
     <t>18 foot bottom trawl, Chequamegon Bay trawl</t>
   </si>
   <si>
-    <t>3 meter bem trawl</t>
-  </si>
-  <si>
     <t>50 foot midwater trawl</t>
   </si>
   <si>
@@ -459,9 +463,6 @@
     <t>Kaho</t>
   </si>
   <si>
-    <t>Whiefish</t>
-  </si>
-  <si>
     <t>Jon Boat</t>
   </si>
   <si>
@@ -697,6 +698,51 @@
   </si>
   <si>
     <t>steel and wood</t>
+  </si>
+  <si>
+    <t>Vessel_Name</t>
+  </si>
+  <si>
+    <t>Daphnia</t>
+  </si>
+  <si>
+    <t>MinYear</t>
+  </si>
+  <si>
+    <t>MaxYear</t>
+  </si>
+  <si>
+    <t>Ha per hour constant</t>
+  </si>
+  <si>
+    <t>2.01, 1973-76</t>
+  </si>
+  <si>
+    <t>2.45, after 1976</t>
+  </si>
+  <si>
+    <t>na, based on distance</t>
+  </si>
+  <si>
+    <t>0.785, except part of 1993</t>
+  </si>
+  <si>
+    <t>0.6097, for some of 1993</t>
+  </si>
+  <si>
+    <t>TrawlWidth_feet</t>
+  </si>
+  <si>
+    <t>TrawlWidth_note</t>
+  </si>
+  <si>
+    <t>based on Kiyi</t>
+  </si>
+  <si>
+    <t>fixed width</t>
+  </si>
+  <si>
+    <t>3 meter beam trawl</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1343,7 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1622,26 +1668,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7A7E16-D9B7-4C4E-A00E-72F2077CC9C6}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.62890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.15625" customWidth="1"/>
+    <col min="4" max="4" width="37.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.9453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>50</v>
@@ -1649,13 +1700,31 @@
       <c r="D1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1663,13 +1732,31 @@
       <c r="D2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="E2">
+        <v>1972</v>
+      </c>
+      <c r="F2">
+        <v>1999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2">
+        <v>25.49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1677,13 +1764,25 @@
       <c r="D3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="E3">
+        <v>1963</v>
+      </c>
+      <c r="F3">
+        <v>1977</v>
+      </c>
+      <c r="I3">
+        <v>25.49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
       </c>
       <c r="C4">
         <v>21</v>
@@ -1691,248 +1790,497 @@
       <c r="D4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="E4">
+        <v>1994</v>
+      </c>
+      <c r="F4">
+        <v>1997</v>
+      </c>
+      <c r="I4">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>1994</v>
+      </c>
+      <c r="F5">
+        <v>1996</v>
+      </c>
+      <c r="I5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>1974</v>
+      </c>
+      <c r="F6">
+        <v>1998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6">
+        <v>25.49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
       </c>
       <c r="C7">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8">
+        <v>157</v>
+      </c>
+      <c r="E7">
+        <v>1990</v>
+      </c>
+      <c r="F7">
+        <v>1992</v>
+      </c>
+      <c r="I7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
         <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>1976</v>
+      </c>
+      <c r="F8">
+        <v>1976</v>
+      </c>
+      <c r="G8">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I8">
+        <v>25.49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="E9">
+        <v>2004</v>
+      </c>
+      <c r="F9">
+        <v>2004</v>
+      </c>
+      <c r="G9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>1978</v>
+      </c>
+      <c r="F10">
+        <v>1999</v>
+      </c>
+      <c r="G10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I10">
+        <v>25.49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10">
+      <c r="C11">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="E11">
+        <v>1999</v>
+      </c>
+      <c r="F11">
+        <v>1999</v>
+      </c>
+      <c r="G11">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I11">
+        <v>25.49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
+      <c r="F12">
+        <v>2020</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12">
+        <v>25.49</v>
+      </c>
+      <c r="J12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
         <v>25</v>
       </c>
-      <c r="C12">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="E13">
+        <v>2001</v>
+      </c>
+      <c r="F13">
+        <v>2002</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="C14">
         <v>25</v>
       </c>
-      <c r="C13">
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
+      <c r="F14">
+        <v>2019</v>
+      </c>
+      <c r="G14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14">
+        <v>25.49</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="C15">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>2003</v>
+      </c>
+      <c r="F15">
+        <v>2018</v>
+      </c>
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
         <v>25</v>
       </c>
-      <c r="C14">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
-        <v>25</v>
-      </c>
-      <c r="C15">
+      <c r="C16">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16">
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>2004</v>
+      </c>
+      <c r="F16">
+        <v>2010</v>
+      </c>
+      <c r="G16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
         <v>50</v>
       </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17">
-        <v>92</v>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
       <c r="C17">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <v>1993</v>
+      </c>
+      <c r="F17">
+        <v>1993</v>
+      </c>
+      <c r="G17">
+        <v>1.1739999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
         <v>92</v>
       </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
       <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>1992</v>
+      </c>
+      <c r="F18">
+        <v>1997</v>
+      </c>
+      <c r="G18">
+        <v>0.65680000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>1995</v>
+      </c>
+      <c r="F19">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19">
-        <v>92</v>
-      </c>
-      <c r="C19">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20">
+      <c r="E20">
+        <v>1995</v>
+      </c>
+      <c r="F20">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
         <v>95</v>
       </c>
-      <c r="C20">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21">
-        <v>99</v>
+      <c r="B21" t="s">
+        <v>66</v>
       </c>
       <c r="C21">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="E21">
+        <v>2008</v>
+      </c>
+      <c r="F21">
+        <v>2019</v>
+      </c>
+      <c r="G21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22">
+        <v>1988</v>
+      </c>
+      <c r="F22">
+        <v>2004</v>
+      </c>
+      <c r="G22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
-    <sortCondition ref="B2:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G22">
+    <sortCondition ref="F2:F22"/>
+    <sortCondition ref="G2:G22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1978,87 +2326,87 @@
   <sheetData>
     <row r="1" spans="1:24" s="20" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="22" customFormat="1" ht="15.9" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A2" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="11">
         <v>39</v>
@@ -2073,34 +2421,34 @@
         <v>45.5</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L2" s="11">
         <v>7</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P2" s="12">
         <v>2.5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R2" s="11">
         <v>600</v>
@@ -2112,21 +2460,21 @@
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D3" s="13">
         <v>39</v>
@@ -2141,34 +2489,34 @@
         <v>45.5</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I3" s="13">
         <v>1</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L3" s="13">
         <v>7</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P3" s="16">
         <v>2.5</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R3" s="13">
         <v>600</v>
@@ -2180,27 +2528,27 @@
         <v>6</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="V3" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" s="13">
         <v>50</v>
@@ -2215,34 +2563,34 @@
         <v>92</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I4" s="13">
         <v>1</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L4" s="13">
         <v>30</v>
       </c>
       <c r="M4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="Q4" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R4" s="13">
         <v>760</v>
@@ -2254,21 +2602,21 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A5" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" s="13">
         <v>16</v>
@@ -2283,34 +2631,34 @@
         <v>20</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I5" s="13">
         <v>1</v>
       </c>
       <c r="J5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="P5" s="16">
         <v>1.25</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R5" s="13">
         <v>165</v>
@@ -2322,10 +2670,10 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2355,37 +2703,37 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="15.9" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A2" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="27">
         <v>60</v>
@@ -2409,10 +2757,10 @@
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A3" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" s="28">
         <v>67</v>
@@ -2436,10 +2784,10 @@
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="28">
         <v>36</v>
